--- a/Compute_MAFE_Bilinear_Demand_Intensity.xlsx
+++ b/Compute_MAFE_Bilinear_Demand_Intensity.xlsx
@@ -1354,6 +1354,42 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1372,43 +1408,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1921,11 +1921,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1816181008"/>
-        <c:axId val="1794455040"/>
+        <c:axId val="1816184768"/>
+        <c:axId val="1881396656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1816181008"/>
+        <c:axId val="1816184768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,12 +2043,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1794455040"/>
+        <c:crossAx val="1881396656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1794455040"/>
+        <c:axId val="1881396656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,7 +2161,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1816181008"/>
+        <c:crossAx val="1816184768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2557,11 +2557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1812326960"/>
-        <c:axId val="1812328736"/>
+        <c:axId val="1881476032"/>
+        <c:axId val="1881479152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1812326960"/>
+        <c:axId val="1881476032"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2721,12 +2721,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812328736"/>
+        <c:crossAx val="1881479152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1812328736"/>
+        <c:axId val="1881479152"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2859,7 +2859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812326960"/>
+        <c:crossAx val="1881476032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3041,8 +3041,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1815889648"/>
-        <c:axId val="1815627968"/>
+        <c:axId val="1816332224"/>
+        <c:axId val="1816334768"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3145,11 +3145,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1815633920"/>
-        <c:axId val="1815630864"/>
+        <c:axId val="1881559984"/>
+        <c:axId val="1881583648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1815889648"/>
+        <c:axId val="1816332224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3260,12 +3260,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815627968"/>
+        <c:crossAx val="1816334768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1815627968"/>
+        <c:axId val="1816334768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3377,12 +3377,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815889648"/>
+        <c:crossAx val="1816332224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1815630864"/>
+        <c:axId val="1881583648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3481,12 +3481,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815633920"/>
+        <c:crossAx val="1881559984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1815633920"/>
+        <c:axId val="1881559984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3496,7 +3496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1815630864"/>
+        <c:crossAx val="1881583648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5607,7 +5607,7 @@
   <dimension ref="A1:Z79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5625,34 +5625,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="S2" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="50">
+      <c r="T2" s="43">
         <f>F13</f>
         <v>-0.53124297285995026</v>
       </c>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43">
         <f>F14</f>
         <v>-0.1313934315181701</v>
       </c>
-      <c r="W2" s="50"/>
+      <c r="W2" s="43"/>
       <c r="Y2">
         <f>B5</f>
         <v>0.82</v>
@@ -5662,34 +5662,34 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="E3" s="43" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="E3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
-      <c r="I3" s="46" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="I3" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
       <c r="S3" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="51">
+      <c r="T3" s="44">
         <f>F15</f>
         <v>0.29632825619396053</v>
       </c>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51">
+      <c r="U3" s="44"/>
+      <c r="V3" s="44">
         <f>F16</f>
         <v>9.6794145904314857E-2</v>
       </c>
-      <c r="W3" s="51"/>
+      <c r="W3" s="44"/>
       <c r="Y3">
         <f>Y2</f>
         <v>0.82</v>
@@ -5730,16 +5730,16 @@
       <c r="S4" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="51">
+      <c r="T4" s="44">
         <f>EXP(T2)</f>
         <v>0.58787380417938528</v>
       </c>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51">
+      <c r="U4" s="44"/>
+      <c r="V4" s="44">
         <f>EXP(V2)</f>
         <v>0.87687271715294657</v>
       </c>
-      <c r="W4" s="51"/>
+      <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
@@ -5816,11 +5816,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
       <c r="E7" s="22" t="s">
         <v>16</v>
       </c>
@@ -5852,15 +5852,15 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
       <c r="E8" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="40">
         <f>F4^2+F5^2+F6^2+F7^2</f>
         <v>0.34639999999999993</v>
       </c>
@@ -5929,11 +5929,11 @@
       <c r="C10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="S10" s="25">
         <f t="shared" si="4"/>
         <v>0.10250000000000001</v>
@@ -5972,7 +5972,7 @@
         <f>1/(1+2*B11*F8/(B17^2))</f>
         <v>0.74650567142334434</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="58" t="s">
         <v>79</v>
       </c>
       <c r="S11" s="25">
@@ -6004,7 +6004,7 @@
         <f>1/(1+2*B11*F8/(B18^2))</f>
         <v>0.9729529252847986</v>
       </c>
-      <c r="G12" s="57"/>
+      <c r="G12" s="41"/>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
         <v>0.14350000000000002</v>
@@ -6027,11 +6027,11 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
       <c r="E13" s="22" t="s">
         <v>21</v>
       </c>
@@ -6039,7 +6039,7 @@
         <f>F11*((LN(B4)-LN(B15))/B17-B10*F8/(B17^2))</f>
         <v>-0.53124297285995026</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="41" t="s">
         <v>80</v>
       </c>
       <c r="S13" s="25">
@@ -6064,11 +6064,11 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
       <c r="E14" s="22" t="s">
         <v>22</v>
       </c>
@@ -6076,7 +6076,7 @@
         <f>F12*((LN(B4)-LN(B16))/B18-B10*F8/(B18^2))</f>
         <v>-0.1313934315181701</v>
       </c>
-      <c r="G14" s="57"/>
+      <c r="G14" s="41"/>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
         <v>0.1845</v>
@@ -6115,7 +6115,7 @@
         <f>F8*SQRT(F11)/B17</f>
         <v>0.29632825619396053</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="41" t="s">
         <v>81</v>
       </c>
       <c r="S15" s="25">
@@ -6156,7 +6156,7 @@
         <f>F8*SQRT(F12)/B18</f>
         <v>9.6794145904314857E-2</v>
       </c>
-      <c r="G16" s="57"/>
+      <c r="G16" s="41"/>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
         <v>0.22549999999999998</v>
@@ -6362,7 +6362,7 @@
         <f>SQRT(F11)*POWER(B9,1-F11)*POWER(B24,F11)*EXP(B10^2*F11*F8/(2*B17^2))</f>
         <v>5.2484079798743305E-5</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="41" t="s">
         <v>82</v>
       </c>
       <c r="S21" s="25">
@@ -6404,7 +6404,7 @@
         <f>SQRT(F12)*POWER(B9,1-F12)*POWER(B25,F12)*EXP(B10^2*F12*F8/(2*B18^2))</f>
         <v>5.1745650518399815E-5</v>
       </c>
-      <c r="G22" s="58"/>
+      <c r="G22" s="42"/>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
         <v>0.34850000000000003</v>
@@ -6824,7 +6824,7 @@
         <v>0.69699999999999984</v>
       </c>
       <c r="T39" s="37">
-        <f t="shared" ref="T39:T70" si="5">_xlfn.LOGNORM.DIST(S39,$T$2,$T$3,FALSE)</f>
+        <f t="shared" ref="T39:T66" si="5">_xlfn.LOGNORM.DIST(S39,$T$2,$T$3,FALSE)</f>
         <v>1.6375981394400985</v>
       </c>
       <c r="U39" s="29">
@@ -7812,6 +7812,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="V2:W2"/>
@@ -7819,18 +7831,6 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="B19">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
